--- a/Statistics/S11_L67/4.9.Test-for-the-mean.Independent-samples-Part-2-exercise-2-solution.xlsx
+++ b/Statistics/S11_L67/4.9.Test-for-the-mean.Independent-samples-Part-2-exercise-2-solution.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03CA29F8-5157-4805-AF51-7B4CD8535E93}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFCBBC4D-9030-4B93-A80A-0BB4DE42E71A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8988" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -132,7 +126,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -236,9 +230,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -247,8 +241,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="4" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -257,8 +250,8 @@
     <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -540,88 +533,88 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V24"/>
+  <dimension ref="B1:V24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="12" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="12" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B3" s="2"/>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="17"/>
-      <c r="S3" s="17"/>
-      <c r="T3" s="17"/>
-      <c r="U3" s="17"/>
-      <c r="V3" s="17"/>
-    </row>
-    <row r="4" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="16"/>
+      <c r="T3" s="16"/>
+      <c r="U3" s="16"/>
+      <c r="V3" s="16"/>
+    </row>
+    <row r="4" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="17"/>
-      <c r="S4" s="17"/>
-      <c r="T4" s="17"/>
-      <c r="U4" s="17"/>
-      <c r="V4" s="17"/>
-    </row>
-    <row r="5" spans="1:22" ht="12" x14ac:dyDescent="0.25">
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="16"/>
+      <c r="S4" s="16"/>
+      <c r="T4" s="16"/>
+      <c r="U4" s="16"/>
+      <c r="V4" s="16"/>
+    </row>
+    <row r="5" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
@@ -629,22 +622,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="12" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:22" ht="12" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-    </row>
-    <row r="9" spans="1:22" ht="12.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="6"/>
+    <row r="9" spans="2:22" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="4"/>
       <c r="C9" s="4" t="s">
         <v>4</v>
@@ -656,215 +642,183 @@
         <v>13</v>
       </c>
       <c r="K9" s="2"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-    </row>
-    <row r="10" spans="1:22" ht="12" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+    </row>
+    <row r="10" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="9">
         <v>1078</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="9">
         <v>908.2</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K10" s="2"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="9"/>
-      <c r="R10" s="9"/>
-      <c r="S10" s="9"/>
-    </row>
-    <row r="11" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A11" s="6"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+    </row>
+    <row r="11" spans="2:22" ht="15" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="9">
         <v>633</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="9">
         <v>469.8</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K11" s="8"/>
-      <c r="L11" s="14" t="s">
+      <c r="K11" s="7"/>
+      <c r="L11" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="9"/>
-      <c r="S11" s="9"/>
-    </row>
-    <row r="12" spans="1:22" ht="12" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+    </row>
+    <row r="12" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B12" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="14">
         <v>24</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="14">
         <v>21</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="9"/>
-      <c r="S12" s="9"/>
-    </row>
-    <row r="13" spans="1:22" ht="12" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+    </row>
+    <row r="13" spans="2:22" x14ac:dyDescent="0.2">
       <c r="G13" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K13" s="2"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="9"/>
-      <c r="R13" s="9"/>
-      <c r="S13" s="9"/>
-    </row>
-    <row r="14" spans="1:22" ht="12" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="8"/>
+    </row>
+    <row r="14" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="10">
         <f xml:space="preserve"> C11^2</f>
         <v>400689</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="10">
         <f>D11^2</f>
         <v>220712.04</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="9"/>
-      <c r="S14" s="9"/>
-    </row>
-    <row r="15" spans="1:22" ht="12" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+    </row>
+    <row r="15" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="10">
         <f>((C12-1)*C14+(D12-1)*D14)/(C12+D12-2)</f>
         <v>316978.78604651167</v>
       </c>
-      <c r="D15" s="11"/>
+      <c r="D15" s="10"/>
       <c r="G15" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L15" s="9" t="s">
+      <c r="L15" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="9"/>
-      <c r="Q15" s="9"/>
-      <c r="R15" s="9"/>
-      <c r="S15" s="9"/>
-    </row>
-    <row r="16" spans="1:22" ht="12" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
+    </row>
+    <row r="16" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C16" s="10">
         <f>(C10-D10)/(SQRT(C15/C12+C15/D12))</f>
         <v>1.0093263198083002</v>
       </c>
-      <c r="D16" s="11"/>
+      <c r="D16" s="10"/>
       <c r="J16" s="2"/>
       <c r="L16" s="1" t="s">
         <v>23</v>
       </c>
       <c r="M16" s="2"/>
     </row>
-    <row r="17" spans="1:13" ht="12" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C17" s="10">
         <v>0.15894800000000001</v>
       </c>
-      <c r="D17" s="11"/>
+      <c r="D17" s="10"/>
       <c r="J17" s="2"/>
     </row>
-    <row r="18" spans="1:13" ht="12" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="6"/>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
       <c r="M18" s="2"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="6"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="6"/>
-    </row>
-    <row r="20" spans="1:13" ht="12" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
       <c r="M20" s="2"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-    </row>
-    <row r="22" spans="1:13" ht="12" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
       <c r="M22" s="2"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-    </row>
-    <row r="24" spans="1:13" ht="12" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
       <c r="M24" s="2"/>
     </row>
   </sheetData>
